--- a/assets/datadashboard/Anchor Profile.xlsx
+++ b/assets/datadashboard/Anchor Profile.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="140" windowWidth="25040" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="135" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$77</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -603,8 +603,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1009,14 +1009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>888.8</v>
+        <v>888800</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>255.2</v>
+        <v>255200</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>201.2</v>
+        <v>201200</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>56.320230418926002</v>
+        <v>56320.230418926003</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
@@ -1108,7 +1108,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>175.3</v>
+        <v>175300</v>
       </c>
       <c r="D6" t="s">
         <v>178</v>
@@ -1122,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>257.404</v>
+        <v>257404</v>
       </c>
       <c r="D7" t="s">
         <v>88</v>
@@ -1136,7 +1136,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>37.299999999999997</v>
+        <v>37300</v>
       </c>
       <c r="D8" t="s">
         <v>179</v>
@@ -1150,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>65000</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
@@ -1164,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>10.9</v>
+        <v>10900</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -1181,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>24.3</v>
+        <v>24300</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>14.9</v>
+        <v>14900</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
@@ -1215,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>91.6</v>
+        <v>91600</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
@@ -1232,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>13.3</v>
+        <v>13300</v>
       </c>
       <c r="C14" t="s">
         <v>98</v>
@@ -1249,7 +1249,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>83000</v>
       </c>
       <c r="C15" t="s">
         <v>100</v>
@@ -1266,7 +1266,7 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>104.03</v>
+        <v>104030</v>
       </c>
       <c r="D16" t="s">
         <v>180</v>
@@ -1280,7 +1280,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>32000</v>
       </c>
       <c r="C17" t="s">
         <v>102</v>
@@ -1297,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>26.9</v>
+        <v>26900</v>
       </c>
       <c r="C18" t="s">
         <v>100</v>
@@ -1314,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>80.599999999999994</v>
+        <v>80600</v>
       </c>
       <c r="D19" t="s">
         <v>105</v>
@@ -1328,7 +1328,7 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>10.7</v>
+        <v>10700</v>
       </c>
       <c r="C20" t="s">
         <v>106</v>
@@ -1345,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>84.5</v>
+        <v>84500</v>
       </c>
       <c r="D21" t="s">
         <v>181</v>
@@ -1359,7 +1359,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>42.4</v>
+        <v>42400</v>
       </c>
       <c r="C22" t="s">
         <v>108</v>
@@ -1376,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>18.710999999999999</v>
+        <v>18711</v>
       </c>
       <c r="D23" t="s">
         <v>110</v>
@@ -1390,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>12.4</v>
+        <v>12400</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -1407,7 +1407,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>9.1999999999999993</v>
+        <v>9200</v>
       </c>
       <c r="C25" t="s">
         <v>112</v>
@@ -1424,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>12.4</v>
+        <v>12400</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
@@ -1441,7 +1441,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>5.5</v>
+        <v>5500</v>
       </c>
       <c r="C27" t="s">
         <v>112</v>
@@ -1458,7 +1458,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>22.1</v>
+        <v>22100</v>
       </c>
       <c r="C28" t="s">
         <v>116</v>
@@ -1475,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>21.3</v>
+        <v>21300</v>
       </c>
       <c r="C29" t="s">
         <v>118</v>
@@ -1492,7 +1492,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>5.6</v>
+        <v>5600</v>
       </c>
       <c r="C30" t="s">
         <v>120</v>
@@ -1509,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="C31" t="s">
         <v>122</v>
@@ -1526,7 +1526,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="C32" t="s">
         <v>124</v>
@@ -1543,7 +1543,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>8.6</v>
+        <v>8600</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
@@ -1560,7 +1560,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>6.3440000000000003</v>
+        <v>6344</v>
       </c>
       <c r="C34" t="s">
         <v>127</v>
@@ -1577,7 +1577,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>17.8</v>
+        <v>17800</v>
       </c>
       <c r="C35" t="s">
         <v>129</v>
@@ -1594,7 +1594,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>17.600000000000001</v>
+        <v>17600</v>
       </c>
       <c r="C36" t="s">
         <v>96</v>
@@ -1611,7 +1611,7 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="D37" t="s">
         <v>132</v>
@@ -1625,7 +1625,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>19.399999999999999</v>
+        <v>19400</v>
       </c>
       <c r="C38" t="s">
         <v>133</v>
@@ -1642,7 +1642,7 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>11.3</v>
+        <v>11300</v>
       </c>
       <c r="C39" t="s">
         <v>135</v>
@@ -1659,7 +1659,7 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>6.2</v>
+        <v>6200</v>
       </c>
       <c r="C40" t="s">
         <v>137</v>
@@ -1676,7 +1676,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>31.6</v>
+        <v>31600</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -1693,7 +1693,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>13</v>
+        <v>13000</v>
       </c>
       <c r="C42" t="s">
         <v>140</v>
@@ -1710,7 +1710,7 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C43" t="s">
         <v>124</v>
@@ -1727,7 +1727,7 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>22.3</v>
+        <v>22300</v>
       </c>
       <c r="C44" t="s">
         <v>143</v>
@@ -1744,7 +1744,7 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>3.47</v>
+        <v>3470</v>
       </c>
       <c r="C45" t="s">
         <v>145</v>
@@ -1761,7 +1761,7 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>2.6</v>
+        <v>2600</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -1778,7 +1778,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>11.8</v>
+        <v>11800</v>
       </c>
       <c r="C47" t="s">
         <v>148</v>
@@ -1795,7 +1795,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>6.1159999999999997</v>
+        <v>6116</v>
       </c>
       <c r="D48" t="s">
         <v>150</v>
@@ -1809,7 +1809,7 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>29.7</v>
+        <v>29700</v>
       </c>
       <c r="D49" t="s">
         <v>151</v>
@@ -1823,7 +1823,7 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>23.9</v>
+        <v>23900</v>
       </c>
       <c r="C50" t="s">
         <v>152</v>
@@ -1840,7 +1840,7 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
       <c r="C51" t="s">
         <v>122</v>
@@ -1857,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>5.33</v>
+        <v>5330</v>
       </c>
       <c r="D52" t="s">
         <v>182</v>
@@ -1871,7 +1871,7 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>84.14</v>
+        <v>84140</v>
       </c>
       <c r="D53" t="s">
         <v>155</v>
@@ -1885,7 +1885,7 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
@@ -1902,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>9.1</v>
+        <v>9100</v>
       </c>
       <c r="C55" t="s">
         <v>157</v>
@@ -1919,7 +1919,7 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>30.8</v>
+        <v>30800</v>
       </c>
       <c r="C56" t="s">
         <v>159</v>
@@ -1936,7 +1936,7 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>10.199999999999999</v>
+        <v>10200</v>
       </c>
       <c r="C57" t="s">
         <v>100</v>
@@ -1953,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>10.35</v>
+        <v>10350</v>
       </c>
       <c r="D58" t="s">
         <v>183</v>
@@ -1967,7 +1967,7 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>34.9</v>
+        <v>34900</v>
       </c>
       <c r="D59" t="s">
         <v>162</v>
@@ -1981,7 +1981,7 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>26.4</v>
+        <v>26400</v>
       </c>
       <c r="C60" t="s">
         <v>112</v>
@@ -1998,7 +1998,7 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>10.5</v>
+        <v>10500</v>
       </c>
       <c r="C61" t="s">
         <v>164</v>
@@ -2015,7 +2015,7 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>10.4</v>
+        <v>10400</v>
       </c>
       <c r="C62" t="s">
         <v>166</v>
@@ -2032,7 +2032,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>3.87</v>
+        <v>3870</v>
       </c>
       <c r="D63" t="s">
         <v>184</v>
@@ -2046,7 +2046,7 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>3.0630000000000002</v>
+        <v>3063</v>
       </c>
       <c r="D64" t="s">
         <v>168</v>
@@ -2060,7 +2060,7 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="C65" t="s">
         <v>169</v>
@@ -2077,7 +2077,7 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
       <c r="C66" t="s">
         <v>171</v>
@@ -2094,7 +2094,7 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>27.4</v>
+        <v>27400</v>
       </c>
       <c r="D67" t="s">
         <v>185</v>
@@ -2108,7 +2108,7 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>4.5</v>
+        <v>4500</v>
       </c>
       <c r="D68" t="s">
         <v>186</v>
@@ -2122,7 +2122,7 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>17.399999999999999</v>
+        <v>17400</v>
       </c>
       <c r="C69" t="s">
         <v>173</v>
@@ -2139,7 +2139,7 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>5.9</v>
+        <v>5900</v>
       </c>
       <c r="D70" t="s">
         <v>187</v>
@@ -2153,7 +2153,7 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>8.1999999999999993</v>
+        <v>8200</v>
       </c>
       <c r="C71" t="s">
         <v>96</v>
@@ -2170,7 +2170,7 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="D72" t="s">
         <v>188</v>
@@ -2184,7 +2184,7 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>6.2</v>
+        <v>6200</v>
       </c>
       <c r="D73" t="s">
         <v>176</v>
@@ -2198,7 +2198,7 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>20.2</v>
+        <v>20200</v>
       </c>
       <c r="D74" t="s">
         <v>189</v>
@@ -2212,7 +2212,7 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>2.422473404567</v>
+        <v>2422.4734045670002</v>
       </c>
       <c r="D75" t="s">
         <v>190</v>
@@ -2226,7 +2226,7 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>4.2050000000000001</v>
+        <v>4205</v>
       </c>
       <c r="D76" t="s">
         <v>177</v>
@@ -2240,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>3.55</v>
+        <v>3550</v>
       </c>
       <c r="D77" t="s">
         <v>191</v>
